--- a/app/static/cards.xlsx
+++ b/app/static/cards.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
-    <sheet name="buff" sheetId="2" r:id="rId2"/>
-    <sheet name="event" sheetId="3" r:id="rId3"/>
+    <sheet name="card_desp" sheetId="4" r:id="rId2"/>
+    <sheet name="buff" sheetId="2" r:id="rId3"/>
+    <sheet name="event" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,109 +529,109 @@
     <col min="13" max="13" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>100101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -648,30 +649,30 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>100102</v>
+        <v>100103</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -689,47 +690,6 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>100103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
         <v>10</v>
       </c>
     </row>
@@ -741,6 +701,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -770,7 +828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/static/cards.xlsx
+++ b/app/static/cards.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
-    <sheet name="card_desp" sheetId="4" r:id="rId2"/>
-    <sheet name="buff" sheetId="2" r:id="rId3"/>
-    <sheet name="event" sheetId="3" r:id="rId4"/>
+    <sheet name="规则描述" sheetId="6" r:id="rId2"/>
+    <sheet name="resource" sheetId="7" r:id="rId3"/>
+    <sheet name="card_new" sheetId="9" r:id="rId4"/>
+    <sheet name="building" sheetId="5" r:id="rId5"/>
+    <sheet name="buff" sheetId="2" r:id="rId6"/>
+    <sheet name="effect" sheetId="8" r:id="rId7"/>
+    <sheet name="event" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +76,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100,0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,11 +140,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌效果描述</t>
+    <t>autouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木箱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木箱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得50点木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100点木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废铁1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废铁2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得50点钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100点钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩食物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩食物2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得30点食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得50点食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废旧机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个蒸汽核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human_rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采煤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得50点煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗费人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁住人力回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用次数，0代表无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对资源库存影响：煤/木/铁/食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对资源产出影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对资源消耗影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对资源容量影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应buff的ID，0代表无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否抽到自动打出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,47 +324,363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌需要的人力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源库存影响：煤/木/铁/食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源产量影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源日耗影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源上限影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应buff的ID，0代表无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用次数，0代表无限，次数用完后打出不进入弃牌堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁住的人力回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否抽到时自动打出？</t>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20点木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召集猎人获得食材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理伤员和病人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以派出巡逻队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20份食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20点钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉的燃料，末世生存的必需品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造建筑的主要材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造建筑和工业产品的原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存的必需品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤 库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材 库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁 库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物 库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化机械的核心元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤 上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市能储存的煤上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材 上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁 上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物 上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤 产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材 产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁 产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物 产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物 日耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁 日耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材 日耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤 日耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口 空闲劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口 劳动力总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市煤资源日产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市煤资源日消耗量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人 空闲劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人 劳动力总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死者-未安葬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死者-已安葬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满值积累到一定程度会引发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望值是颁布政令的基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的资源id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc_impact_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc_impact_mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响方式 加减 默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响方式 系数 默认1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounding_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技点数 T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技点数 T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技点数 T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技点数 T5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点T1科技点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应buff的ID，默认0代表无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到自动打出，默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究科技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点T2科技点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派出探险队进行探索，获得人口/资源/特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合打出的所有行动牌产出+50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始生效回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损坏的机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存各类资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_human</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,23 +1009,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="43.375" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,160 +1035,570 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>100101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>100102</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>100103</v>
+        <v>100102</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100103</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>200101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>200102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>200103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>200104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>200105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -702,97 +1610,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -800,26 +1623,372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>403</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>901</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>902</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>903</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>904</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>905</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>909</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>911</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>912</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>991</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>992</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>801</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>802</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>702</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>703</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>704</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>705</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -829,6 +1998,905 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>200101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>200102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>200103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>200104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>200105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>200106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1102</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1103</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1104</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1105</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1106</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1107</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1108</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/static/cards.xlsx
+++ b/app/static/cards.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B0E6B-22F9-4913-B466-C5A465989B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -12,10 +13,14 @@
     <sheet name="resource" sheetId="7" r:id="rId3"/>
     <sheet name="card_new" sheetId="9" r:id="rId4"/>
     <sheet name="building" sheetId="5" r:id="rId5"/>
-    <sheet name="buff" sheetId="2" r:id="rId6"/>
-    <sheet name="effect" sheetId="8" r:id="rId7"/>
-    <sheet name="event" sheetId="3" r:id="rId8"/>
+    <sheet name="tech" sheetId="10" r:id="rId6"/>
+    <sheet name="buff" sheetId="2" r:id="rId7"/>
+    <sheet name="effect" sheetId="8" r:id="rId8"/>
+    <sheet name="event" sheetId="3" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">building!$A$1:$O$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="266">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健康所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护理伤员和病人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以派出巡逻队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value_ini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,22 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科技点数 T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技点数 T3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技点数 T4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技点数 T5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得1点T1科技点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究科技2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得1点T2科技点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,18 +621,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合打出的所有行动牌产出+50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起始生效回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效果持续回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>损坏的机器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,13 +638,474 @@
   </si>
   <si>
     <t>build_human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主塔煤炭消耗量和热力值与气温差值的平方 以及人口数量挂钩
+coalConsumption=ΔT²*totalPopulation*α系数
+理想温度=20℃ 消耗量上限受到塔等级和科技控制，上限不足时理想温度降低
+人物长期处在低温情况下会生病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭消耗：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他建筑的煤炭消耗量固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodConsumption=β*labor+0.5β*children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物消耗：小孩消耗的食物是成人（劳动力）的一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生病：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物处在低温环境下生病的概率为每回合 p
+根据不同的温度区间p分段取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人不接受治疗时 自行痊愈的概率为每回合q 死亡概率为每回合d 根据温度区间分段取值
+接受治疗时痊愈概率为随回合数增长的f(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合打出的所有行动牌资源产出+50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩饼干1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩饼干2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续回合 0代表永久生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不被驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童庇护所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为10个儿童提供庇护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住的地方 为10个人提供1级温度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工棚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为10个人提供2级温度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房舍II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房舍III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为10个人提供3级温度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为10个人提供4级温度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为10个人提供5级温度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救护站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加容纳的病人数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养护所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为残疾人士提供休养和安装义肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾-义肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>law_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造资源 木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造资源 钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造所需蒸汽核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后每回合给予手牌id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予手牌张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑自带buff的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安葬死者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安葬死者（自然地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把食物加工成配给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交场所 降低不满 提高希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级狩猎小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取食物的效率进一步提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗热量 种植作物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业温室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效率的温室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是用蒸汽动力的全自动煤矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采煤机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽采煤机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炭窑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将木材转换成煤炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽锯木厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰墙钻机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从冰墙里搞木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽冰墙钻机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级冰墙钻机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽钢厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级钢厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通钢厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产自动化设备必须的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前哨战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加探索队的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对气象事件做出预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以派出探索队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置科技ID 默认无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置法典ID 默认无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过科技站产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级基础科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级基础科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级基础科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级基础科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置科技的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘图板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制图仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动成型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求科技点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗钢铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,7 +1426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1505,16 +1923,16 @@
         <v>200102</v>
       </c>
       <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1537,16 +1955,16 @@
         <v>200103</v>
       </c>
       <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
         <v>87</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1566,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1589,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1609,24 +2027,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="69.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1640,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,10 +2119,10 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1665,10 +2130,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1676,10 +2141,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1687,10 +2152,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,10 +2163,10 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,10 +2174,10 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1720,7 +2185,7 @@
         <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1728,7 +2193,7 @@
         <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1736,7 +2201,7 @@
         <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,10 +2209,10 @@
         <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1755,7 +2220,7 @@
         <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1763,7 +2228,7 @@
         <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1771,7 +2236,7 @@
         <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,10 +2244,10 @@
         <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1790,7 +2255,7 @@
         <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1798,7 +2263,7 @@
         <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1806,7 +2271,7 @@
         <v>404</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,7 +2279,7 @@
         <v>901</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1825,7 +2290,7 @@
         <v>902</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1836,7 +2301,7 @@
         <v>903</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1847,7 +2312,7 @@
         <v>904</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1858,7 +2323,7 @@
         <v>905</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1866,32 +2331,32 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1899,13 +2364,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>991</v>
+        <v>912</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1913,35 +2375,38 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>801</v>
+        <v>992</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1949,10 +2414,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>702</v>
+        <v>802</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1960,35 +2425,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>704</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>705</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1998,11 +2441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2047,13 +2490,13 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -2088,19 +2531,19 @@
         <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2338,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -2370,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -2402,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -2457,16 +2900,16 @@
         <v>200102</v>
       </c>
       <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2489,16 +2932,16 @@
         <v>200103</v>
       </c>
       <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
         <v>87</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2521,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2547,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2567,16 +3010,16 @@
         <v>200106</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -2596,23 +3039,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2620,208 +3068,800 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1101</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="E2">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="L3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1102</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1201</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1111</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G5" t="s">
         <v>74</v>
       </c>
-      <c r="E3">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1103</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1121</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1104</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1131</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1141</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1232</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1331</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1432</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2101</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2102</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2103</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2104</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2191</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2192</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2201</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2301</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2401</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2501</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3101</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3201</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3202</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4101</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
         <v>81</v>
       </c>
-      <c r="E5">
+      <c r="G25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="L25">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1105</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5101</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6">
+      <c r="G26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1401</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1202</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1402</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1303</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1311</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1212</v>
+      </c>
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1412</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1221</v>
+      </c>
+      <c r="B34">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1106</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1421</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4301</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5201</v>
+      </c>
+      <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1107</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1108</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5301</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O13" xr:uid="{35E3B1FE-2A60-42A8-B532-02EC701508F4}">
+    <sortState ref="A2:O26">
+      <sortCondition ref="A1:A13"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9BD06-6502-4969-868E-978C900573ED}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="56.375" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2829,38 +3869,118 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +3990,80 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2896,8 +4089,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/app/static/cards.xlsx
+++ b/app/static/cards.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B0E6B-22F9-4913-B466-C5A465989B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E0C8B-80A9-4D68-A8D5-F96CC921AC48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="card_new" sheetId="9" r:id="rId4"/>
     <sheet name="building" sheetId="5" r:id="rId5"/>
     <sheet name="tech" sheetId="10" r:id="rId6"/>
-    <sheet name="buff" sheetId="2" r:id="rId7"/>
-    <sheet name="effect" sheetId="8" r:id="rId8"/>
-    <sheet name="event" sheetId="3" r:id="rId9"/>
+    <sheet name="law" sheetId="11" r:id="rId7"/>
+    <sheet name="buff" sheetId="2" r:id="rId8"/>
+    <sheet name="effect" sheetId="8" r:id="rId9"/>
+    <sheet name="event" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">building!$A$1:$O$13</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="269">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,6 +1100,18 @@
   </si>
   <si>
     <t>消耗钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的buffid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级基础科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2026,6 +2039,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A11"/>
@@ -2091,7 +2131,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2445,7 +2485,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3042,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3156,10 +3196,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3181,8 +3221,8 @@
       <c r="A4">
         <v>1201</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>268</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -3843,6 +3883,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3850,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9BD06-6502-4969-868E-978C900573ED}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3859,6 +3900,7 @@
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3915,6 +3957,9 @@
       <c r="H2" t="s">
         <v>253</v>
       </c>
+      <c r="I2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3925,6 +3970,9 @@
       </c>
       <c r="C3" t="s">
         <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3990,6 +4038,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AA78B2-9727-480B-A38C-DADCA445819F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4062,7 +4140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4087,17 +4165,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/app/static/cards.xlsx
+++ b/app/static/cards.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E0C8B-80A9-4D68-A8D5-F96CC921AC48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D1615-A4A3-4DD4-8227-006546AF7773}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3877,7 +3877,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O13" xr:uid="{35E3B1FE-2A60-42A8-B532-02EC701508F4}">
-    <sortState ref="A2:O26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O26">
       <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
